--- a/data/trans_orig/P2A_ner_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7847</v>
+        <v>7839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23884</v>
+        <v>22733</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02058062184605587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01130641594952174</v>
+        <v>0.01129528627289294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03441462342333098</v>
+        <v>0.03275633543253873</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>33305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23810</v>
+        <v>23908</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46327</v>
+        <v>44455</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04838307941653327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03458990263834597</v>
+        <v>0.03473202616552078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06730187070824353</v>
+        <v>0.0645811565385514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -786,19 +786,19 @@
         <v>47588</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35649</v>
+        <v>36188</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63369</v>
+        <v>62459</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03442492188343661</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0257883257147222</v>
+        <v>0.02617819205886259</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04584072059786883</v>
+        <v>0.04518280517420531</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>679729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>670128</v>
+        <v>671279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>686165</v>
+        <v>686173</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9794193781539441</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9655853765766692</v>
+        <v>0.9672436645674612</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9886935840504786</v>
+        <v>0.9887047137271066</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -836,19 +836,19 @@
         <v>655046</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>642024</v>
+        <v>643896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>664541</v>
+        <v>664443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9516169205834667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9326981292917563</v>
+        <v>0.9354188434614484</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9654100973616536</v>
+        <v>0.9652679738344789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1331</v>
@@ -857,19 +857,19 @@
         <v>1334775</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1318994</v>
+        <v>1319904</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1346714</v>
+        <v>1346175</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9655750781165634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9541592794021311</v>
+        <v>0.9548171948257947</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9742116742852778</v>
+        <v>0.9738218079411374</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19264</v>
+        <v>20140</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41994</v>
+        <v>43038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03077064878253487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0200291503388338</v>
+        <v>0.02094030318247454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04366222327366868</v>
+        <v>0.04474747146298004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>44920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33374</v>
+        <v>32994</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60040</v>
+        <v>60409</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04638613323169209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03446353556297931</v>
+        <v>0.03407087421389268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06199952016296081</v>
+        <v>0.06238057791891034</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -1003,19 +1003,19 @@
         <v>74515</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58764</v>
+        <v>58063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94465</v>
+        <v>94055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03860506028610688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03044487159610601</v>
+        <v>0.03008163776200502</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04894078440112339</v>
+        <v>0.0487285316303922</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>932205</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>919806</v>
+        <v>918762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942536</v>
+        <v>941660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9692293512174651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9563377767263309</v>
+        <v>0.9552525285370199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9799708496611661</v>
+        <v>0.9790596968175255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>867</v>
@@ -1053,19 +1053,19 @@
         <v>923473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>908353</v>
+        <v>907984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>935019</v>
+        <v>935399</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9536138667683079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9380004798370392</v>
+        <v>0.9376194220810897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9655364644370209</v>
+        <v>0.9659291257861075</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1736</v>
@@ -1074,19 +1074,19 @@
         <v>1855678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1835728</v>
+        <v>1836138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1871429</v>
+        <v>1872130</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9613949397138931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9510592155988765</v>
+        <v>0.9512714683696077</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9695551284038939</v>
+        <v>0.9699183622379949</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15951</v>
+        <v>16258</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36253</v>
+        <v>35730</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03570830687345974</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02350826753373961</v>
+        <v>0.02396081208826238</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05342991097645862</v>
+        <v>0.05265889099776893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1199,19 +1199,19 @@
         <v>32658</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23305</v>
+        <v>22979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44984</v>
+        <v>45237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04775658108278946</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0340796323063788</v>
+        <v>0.03360297571722745</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06578148569881066</v>
+        <v>0.06615181277362264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1220,19 +1220,19 @@
         <v>56886</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44952</v>
+        <v>44118</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73658</v>
+        <v>72971</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04175602193551416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03299600051279441</v>
+        <v>0.03238397273378524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0540670476889597</v>
+        <v>0.05356248614263264</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>654281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>642256</v>
+        <v>642779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>662558</v>
+        <v>662251</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9642916931265403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9465700890235413</v>
+        <v>0.9473411090022301</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9764917324662604</v>
+        <v>0.9760391879117375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>662</v>
@@ -1270,19 +1270,19 @@
         <v>651183</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638857</v>
+        <v>638604</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660536</v>
+        <v>660862</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9522434189172105</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9342185143011895</v>
+        <v>0.9338481872263775</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9659203676936216</v>
+        <v>0.9663970242827727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1278</v>
@@ -1291,19 +1291,19 @@
         <v>1305464</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1288692</v>
+        <v>1289379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317398</v>
+        <v>1318232</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9582439780644858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9459329523110402</v>
+        <v>0.9464375138573674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9670039994872056</v>
+        <v>0.9676160272662148</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>22812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15265</v>
+        <v>14416</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33568</v>
+        <v>32991</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02421065535108826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01620155533752165</v>
+        <v>0.0152998790084294</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03562638784647556</v>
+        <v>0.03501430440267736</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1416,19 +1416,19 @@
         <v>44072</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33024</v>
+        <v>33333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59332</v>
+        <v>59393</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04243367968447713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03179656144508585</v>
+        <v>0.03209374098231647</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05712596125823831</v>
+        <v>0.05718479540808331</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -1437,19 +1437,19 @@
         <v>66884</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51950</v>
+        <v>53032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86371</v>
+        <v>84739</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03376554528798905</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02622655098933086</v>
+        <v>0.02677237412735931</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04360329606836603</v>
+        <v>0.04277966423497842</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>919410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>908654</v>
+        <v>909231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>926957</v>
+        <v>927806</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9757893446489118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9643736121535235</v>
+        <v>0.9649856955973223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9837984446624783</v>
+        <v>0.9847001209915706</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>956</v>
@@ -1487,19 +1487,19 @@
         <v>994540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>979280</v>
+        <v>979219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005588</v>
+        <v>1005279</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9575663203155229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.942874038741762</v>
+        <v>0.9428152045919167</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9682034385549142</v>
+        <v>0.9679062590176836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1925</v>
@@ -1508,19 +1508,19 @@
         <v>1913950</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1894463</v>
+        <v>1896095</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1928884</v>
+        <v>1927802</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.966234454712011</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9563967039316339</v>
+        <v>0.9572203357650215</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9737734490106689</v>
+        <v>0.9732276258726407</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>90919</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02774833934472318</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -1633,19 +1633,19 @@
         <v>154955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04585544588936078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>241</v>
@@ -1654,19 +1654,19 @@
         <v>245873</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03694152896909649</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3185624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3165176</v>
+        <v>3164028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3204249</v>
+        <v>3204406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9722516606552768</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9660108608377128</v>
+        <v>0.9656605339204534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9779359928768343</v>
+        <v>0.9779837945246829</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3147</v>
@@ -1704,19 +1704,19 @@
         <v>3224242</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3198128</v>
+        <v>3195809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3246760</v>
+        <v>3247909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9541445541106393</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9464165810223676</v>
+        <v>0.9457301892790161</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9608082737161299</v>
+        <v>0.9611481755595074</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6270</v>
@@ -1725,19 +1725,19 @@
         <v>6409868</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6376757</v>
+        <v>6376512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6436583</v>
+        <v>6440970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9630584710309035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9580837011175858</v>
+        <v>0.9580469378180735</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9670722784618707</v>
+        <v>0.9677314452113284</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>26895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17810</v>
+        <v>17604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38868</v>
+        <v>38061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0382324107087785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02531706720140434</v>
+        <v>0.02502456493363771</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05525235787380523</v>
+        <v>0.05410533345260547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2090,19 +2090,19 @@
         <v>34012</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22571</v>
+        <v>23598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45989</v>
+        <v>46233</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04879480283359992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03238067829175569</v>
+        <v>0.03385425696269884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06597610904256981</v>
+        <v>0.0663261681896013</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -2111,19 +2111,19 @@
         <v>60908</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46776</v>
+        <v>46589</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77392</v>
+        <v>78478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04348940153740692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03339896762615305</v>
+        <v>0.03326554464398259</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05525926371104349</v>
+        <v>0.05603473744945123</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>676574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>664601</v>
+        <v>665408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>685659</v>
+        <v>685865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9617675892912215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9447476421261947</v>
+        <v>0.9458946665473953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9746829327985956</v>
+        <v>0.9749754350663625</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>617</v>
@@ -2161,19 +2161,19 @@
         <v>663038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>651061</v>
+        <v>650817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>674479</v>
+        <v>673452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9512051971664001</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9340238909574311</v>
+        <v>0.9336738318103986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9676193217082448</v>
+        <v>0.9661457430373011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1264</v>
@@ -2182,19 +2182,19 @@
         <v>1339611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1323127</v>
+        <v>1322041</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1353743</v>
+        <v>1353930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9565105984625931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9447407362889566</v>
+        <v>0.9439652625505487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9666010323738471</v>
+        <v>0.9667344553560171</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>22797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14974</v>
+        <v>14513</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33291</v>
+        <v>33699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02239514205203441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01471007310134813</v>
+        <v>0.01425721478089439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03270390908451988</v>
+        <v>0.03310453782234627</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -2307,19 +2307,19 @@
         <v>54338</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39211</v>
+        <v>41000</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70606</v>
+        <v>70097</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05264348114576489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03798880064621193</v>
+        <v>0.03972198955758272</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06840471299089687</v>
+        <v>0.06791165807921071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -2328,19 +2328,19 @@
         <v>77135</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60835</v>
+        <v>62700</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99489</v>
+        <v>96995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03762433948244179</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02967367821053144</v>
+        <v>0.03058350254082016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04852829825061118</v>
+        <v>0.04731168520384994</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>995150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>984656</v>
+        <v>984248</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1002973</v>
+        <v>1003434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9776048579479656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9672960909154801</v>
+        <v>0.9668954621776537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9852899268986519</v>
+        <v>0.9857427852191056</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>890</v>
@@ -2378,19 +2378,19 @@
         <v>977846</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961578</v>
+        <v>962087</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>992973</v>
+        <v>991184</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9473565188542351</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9315952870091032</v>
+        <v>0.9320883419207895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9620111993537882</v>
+        <v>0.9602780104424175</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1804</v>
@@ -2399,19 +2399,19 @@
         <v>1972996</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1950642</v>
+        <v>1953136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1989296</v>
+        <v>1987431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9623756605175582</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9514717017493887</v>
+        <v>0.95268831479615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9703263217894684</v>
+        <v>0.9694164974591797</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>17025</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10034</v>
+        <v>9854</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28774</v>
+        <v>29344</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02247181416469715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01324426389978039</v>
+        <v>0.01300643894648458</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03797926150659492</v>
+        <v>0.03873204499249674</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -2524,19 +2524,19 @@
         <v>36357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26486</v>
+        <v>26434</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50705</v>
+        <v>49906</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04678159555750205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03408047250980151</v>
+        <v>0.03401263634783477</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06524285369215929</v>
+        <v>0.06421483086331775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -2545,19 +2545,19 @@
         <v>53383</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40019</v>
+        <v>41286</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69504</v>
+        <v>70462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03478153737258547</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02607437048573574</v>
+        <v>0.02689988541711721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04528572980134253</v>
+        <v>0.04590958173665555</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>740598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>728849</v>
+        <v>728279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>747589</v>
+        <v>747769</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9775281858353029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9620207384934051</v>
+        <v>0.9612679550075033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9867557361002196</v>
+        <v>0.9869935610535154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>670</v>
@@ -2595,19 +2595,19 @@
         <v>740817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>726469</v>
+        <v>727268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>750688</v>
+        <v>750740</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9532184044424979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9347571463078409</v>
+        <v>0.9357851691366823</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9659195274901986</v>
+        <v>0.9659873636521653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1344</v>
@@ -2616,19 +2616,19 @@
         <v>1481414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1465293</v>
+        <v>1464335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1494778</v>
+        <v>1493511</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9652184626274145</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9547142701986575</v>
+        <v>0.9540904182633448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9739256295142643</v>
+        <v>0.9731001145828827</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>38500</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26903</v>
+        <v>27167</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53691</v>
+        <v>56107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04062332863411636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02838657328920937</v>
+        <v>0.02866550253751236</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05665129666822696</v>
+        <v>0.05920113566481455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -2741,19 +2741,19 @@
         <v>50855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38300</v>
+        <v>38001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66386</v>
+        <v>67402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04834607139873232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03640987862994254</v>
+        <v>0.03612611208893737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0631100475684593</v>
+        <v>0.06407660303064022</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -2762,19 +2762,19 @@
         <v>89356</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70426</v>
+        <v>72474</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109198</v>
+        <v>111792</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04468583956409785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03521921963532281</v>
+        <v>0.0362434082474062</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05460873169210715</v>
+        <v>0.05590584597785817</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>909239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>894048</v>
+        <v>891632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>920836</v>
+        <v>920572</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9593766713658837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9433487033317727</v>
+        <v>0.9407988643351853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9716134267107905</v>
+        <v>0.9713344974624876</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>954</v>
@@ -2812,19 +2812,19 @@
         <v>1001046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>985515</v>
+        <v>984499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1013601</v>
+        <v>1013900</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9516539286012676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9368899524315406</v>
+        <v>0.9359233969693598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9635901213700574</v>
+        <v>0.9638738879110627</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1829</v>
@@ -2833,19 +2833,19 @@
         <v>1910284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1890442</v>
+        <v>1887848</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1929214</v>
+        <v>1927166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9553141604359021</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9453912683078927</v>
+        <v>0.9440941540221418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9647807803646766</v>
+        <v>0.9637565917525936</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>105218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84832</v>
+        <v>84998</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126411</v>
+        <v>127064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03070460341549243</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02475570453097915</v>
+        <v>0.0248041763386545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03688922285453251</v>
+        <v>0.03707978731597227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>167</v>
@@ -2958,19 +2958,19 @@
         <v>175563</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149937</v>
+        <v>148645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203161</v>
+        <v>201216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04933885643742431</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04213703710780124</v>
+        <v>0.04177398391423003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05709469365034277</v>
+        <v>0.05654822531355622</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -2979,19 +2979,19 @@
         <v>280781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>247905</v>
+        <v>248314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>316904</v>
+        <v>316905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04019717278217891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03549056294749885</v>
+        <v>0.03554914311377162</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04536867160329198</v>
+        <v>0.04536884175255296</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3321561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3300368</v>
+        <v>3299715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3341947</v>
+        <v>3341781</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9692953965845076</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9631107771454676</v>
+        <v>0.9629202126840281</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9752442954690209</v>
+        <v>0.9751958236613455</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3131</v>
@@ -3029,19 +3029,19 @@
         <v>3382746</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3355148</v>
+        <v>3357093</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3408372</v>
+        <v>3409664</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9506611435625757</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9429053063496572</v>
+        <v>0.9434517746864437</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9578629628921982</v>
+        <v>0.95822601608577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6241</v>
@@ -3050,19 +3050,19 @@
         <v>6704307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6668184</v>
+        <v>6668183</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6737183</v>
+        <v>6736774</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9598028272178211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9546313283967081</v>
+        <v>0.9546311582474473</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9645094370525013</v>
+        <v>0.9644508568862286</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>26633</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17956</v>
+        <v>18040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39755</v>
+        <v>38054</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03946833114165944</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.026609605926425</v>
+        <v>0.02673346792408</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05891366673768358</v>
+        <v>0.05639368526911558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -3415,19 +3415,19 @@
         <v>80305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63616</v>
+        <v>64458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97471</v>
+        <v>101046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.119352344990368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0945484214586504</v>
+        <v>0.09580069193772235</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1448645831289039</v>
+        <v>0.150179077160338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -3436,19 +3436,19 @@
         <v>106938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88077</v>
+        <v>88599</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129729</v>
+        <v>129981</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07935221689742752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06535660744327039</v>
+        <v>0.06574371386079354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0962641680526435</v>
+        <v>0.09645053989905128</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>648167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>635045</v>
+        <v>636746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>656844</v>
+        <v>656760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9605316688583405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9410863332623165</v>
+        <v>0.9436063147308844</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.973390394073575</v>
+        <v>0.9732665320759201</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>589</v>
@@ -3486,19 +3486,19 @@
         <v>592534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>575368</v>
+        <v>571793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>609223</v>
+        <v>608381</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8806476550096319</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.855135416871096</v>
+        <v>0.849820922839662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9054515785413496</v>
+        <v>0.9041993080622777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1214</v>
@@ -3507,19 +3507,19 @@
         <v>1240701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1217910</v>
+        <v>1217658</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1259562</v>
+        <v>1259040</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9206477831025724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9037358319473565</v>
+        <v>0.9035494601009486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9346433925567296</v>
+        <v>0.9342562861392064</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>42135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31487</v>
+        <v>31378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56268</v>
+        <v>56484</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04121026077096501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03079634330896449</v>
+        <v>0.03068939894202169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05503325068480266</v>
+        <v>0.05524449221818119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -3632,19 +3632,19 @@
         <v>96554</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77245</v>
+        <v>79477</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118877</v>
+        <v>118700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09258136304247677</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07406676307508805</v>
+        <v>0.07620690757799942</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.113985874375283</v>
+        <v>0.1138153774922286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -3653,19 +3653,19 @@
         <v>138689</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116040</v>
+        <v>118008</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162292</v>
+        <v>163427</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06715053544012096</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0561842814987038</v>
+        <v>0.0571373911011482</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07857886354164108</v>
+        <v>0.07912811492707267</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>980296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>966163</v>
+        <v>965947</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>990944</v>
+        <v>991053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.958789739229035</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9449667493151973</v>
+        <v>0.9447555077818188</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9692036566910354</v>
+        <v>0.9693106010579784</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>888</v>
@@ -3703,19 +3703,19 @@
         <v>946359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924036</v>
+        <v>924213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>965668</v>
+        <v>963436</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9074186369575232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.886014125624717</v>
+        <v>0.8861846225077715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.925933236924912</v>
+        <v>0.9237930924220007</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1798</v>
@@ -3724,19 +3724,19 @@
         <v>1926655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1903052</v>
+        <v>1901917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1949304</v>
+        <v>1947336</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.932849464559879</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9214211364583589</v>
+        <v>0.9208718850729273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9438157185012961</v>
+        <v>0.9428626088988519</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>33015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23121</v>
+        <v>22126</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44704</v>
+        <v>45988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04346588561471761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03044048619070455</v>
+        <v>0.02912977340708334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05885617898472059</v>
+        <v>0.0605462968967618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3849,19 +3849,19 @@
         <v>81510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66766</v>
+        <v>65180</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100030</v>
+        <v>100594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1038332567168204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08505058425562288</v>
+        <v>0.0830303226855854</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1274255913330287</v>
+        <v>0.128143128947965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -3870,19 +3870,19 @@
         <v>114525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94041</v>
+        <v>95068</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136788</v>
+        <v>136857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07414708098937857</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06088509152767071</v>
+        <v>0.06154995622843686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08856110046998247</v>
+        <v>0.08860574753680274</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>726537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>714848</v>
+        <v>713564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>736431</v>
+        <v>737426</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9565341143852824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9411438210152792</v>
+        <v>0.9394537031032381</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9695595138092954</v>
+        <v>0.9708702265929164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>662</v>
@@ -3920,19 +3920,19 @@
         <v>703501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>684981</v>
+        <v>684417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>718245</v>
+        <v>719831</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8961667432831796</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8725744086669714</v>
+        <v>0.8718568710520351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9149494157443773</v>
+        <v>0.9169696773144146</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1327</v>
@@ -3941,19 +3941,19 @@
         <v>1430038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1407775</v>
+        <v>1407706</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1450522</v>
+        <v>1449495</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9258529190106214</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9114388995300174</v>
+        <v>0.9113942524631969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9391149084723293</v>
+        <v>0.9384500437715632</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>51391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38072</v>
+        <v>39236</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66165</v>
+        <v>68739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05481313441299628</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04060761701004333</v>
+        <v>0.04184871207484093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07057101184446873</v>
+        <v>0.07331591114603683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -4066,19 +4066,19 @@
         <v>132430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112384</v>
+        <v>112086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157894</v>
+        <v>157029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1268755969525233</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1076699707036916</v>
+        <v>0.1073844216046338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1512713247879099</v>
+        <v>0.1504429750197954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -4087,19 +4087,19 @@
         <v>183821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>157292</v>
+        <v>157378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212139</v>
+        <v>212775</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09277585548863619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07938651075618845</v>
+        <v>0.07942962377327295</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1070679083476724</v>
+        <v>0.1073890548859357</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>886176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>871402</v>
+        <v>868828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>899495</v>
+        <v>898331</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9451868655870037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9294289881555315</v>
+        <v>0.9266840888539634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9593923829899568</v>
+        <v>0.958151287925159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>843</v>
@@ -4137,19 +4137,19 @@
         <v>911349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>885885</v>
+        <v>886750</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>931395</v>
+        <v>931693</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8731244030474766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8487286752120902</v>
+        <v>0.8495570249802049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8923300292963084</v>
+        <v>0.8926155783953664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1725</v>
@@ -4158,19 +4158,19 @@
         <v>1797525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1769207</v>
+        <v>1768571</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1824054</v>
+        <v>1823968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9072241445113638</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8929320916523277</v>
+        <v>0.8926109451140644</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9206134892438116</v>
+        <v>0.9205703762267271</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>153173</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>129984</v>
+        <v>130964</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>178133</v>
+        <v>181696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04512600752087264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03829418966934558</v>
+        <v>0.03858304280917845</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05247921054564728</v>
+        <v>0.05352888622643755</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>356</v>
@@ -4283,19 +4283,19 @@
         <v>390800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>354857</v>
+        <v>357109</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>434049</v>
+        <v>434428</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1102538922748162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1001136734966296</v>
+        <v>0.1007488491624178</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1224556491772921</v>
+        <v>0.1225624818039114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>505</v>
@@ -4304,19 +4304,19 @@
         <v>543973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>496437</v>
+        <v>500292</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>587730</v>
+        <v>594454</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07839479329151855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07154409376801985</v>
+        <v>0.07209966493577387</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08470088887638755</v>
+        <v>0.08566991677627277</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3241177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3216217</v>
+        <v>3212654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3264366</v>
+        <v>3263386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9548739924791274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9475207894543526</v>
+        <v>0.9464711137735625</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9617058103306544</v>
+        <v>0.9614169571908215</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2982</v>
@@ -4354,19 +4354,19 @@
         <v>3153742</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3110493</v>
+        <v>3110114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3189685</v>
+        <v>3187433</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8897461077251838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8775443508227079</v>
+        <v>0.8774375181960885</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8998863265033703</v>
+        <v>0.8992511508375821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6064</v>
@@ -4375,19 +4375,19 @@
         <v>6394919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6351162</v>
+        <v>6344438</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6442455</v>
+        <v>6438600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9216052067084815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9152991111236125</v>
+        <v>0.9143300832237272</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9284559062319802</v>
+        <v>0.9279003350642262</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>29330</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19855</v>
+        <v>19989</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42154</v>
+        <v>41950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04246374553664879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02874509268809695</v>
+        <v>0.02893935876636573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06102938004295796</v>
+        <v>0.06073395892395275</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -4740,19 +4740,19 @@
         <v>29342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21598</v>
+        <v>21993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40287</v>
+        <v>40709</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03996631076718993</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02941791013523554</v>
+        <v>0.02995627449727858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0548733973374368</v>
+        <v>0.05544830510338934</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -4761,19 +4761,19 @@
         <v>58673</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45329</v>
+        <v>45268</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74554</v>
+        <v>75804</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04117693252602777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03181252091670356</v>
+        <v>0.03176918456435373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05232246048712902</v>
+        <v>0.05319988835958127</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>661380</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>648556</v>
+        <v>648760</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670855</v>
+        <v>670721</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9575362544633512</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.938970619957042</v>
+        <v>0.9392660410760474</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9712549073119031</v>
+        <v>0.9710606412336342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1194</v>
@@ -4811,19 +4811,19 @@
         <v>704838</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>693893</v>
+        <v>693471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>712582</v>
+        <v>712187</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9600336892328101</v>
+        <v>0.9600336892328099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9451266026625631</v>
+        <v>0.9445516948966107</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9705820898647648</v>
+        <v>0.9700437255027217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1894</v>
@@ -4832,19 +4832,19 @@
         <v>1366216</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1350335</v>
+        <v>1349085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1379560</v>
+        <v>1379621</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9588230674739723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9476775395128709</v>
+        <v>0.9468001116404188</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9681874790832965</v>
+        <v>0.9682308154356462</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>28767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19029</v>
+        <v>18576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43096</v>
+        <v>41900</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02742560569301934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01814121645807863</v>
+        <v>0.01770952305488289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04108609245227091</v>
+        <v>0.0399458390262445</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -4957,19 +4957,19 @@
         <v>54819</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43417</v>
+        <v>44522</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68377</v>
+        <v>68616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05116214786877581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04052037584725558</v>
+        <v>0.04155244076200364</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06381585948628599</v>
+        <v>0.0640390532728032</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -4978,19 +4978,19 @@
         <v>83586</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68881</v>
+        <v>69571</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103151</v>
+        <v>101923</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03942013387541499</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03248508437248492</v>
+        <v>0.03281057183498731</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04864734747372682</v>
+        <v>0.04806804323343589</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1020150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1005821</v>
+        <v>1007017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1029888</v>
+        <v>1030341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9725743943069807</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9589139075477289</v>
+        <v>0.9600541609737555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818587835419214</v>
+        <v>0.9822904769451172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1438</v>
@@ -5028,19 +5028,19 @@
         <v>1016655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1003097</v>
+        <v>1002858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1028057</v>
+        <v>1026952</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9488378521312241</v>
+        <v>0.9488378521312242</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9361841405137141</v>
+        <v>0.9359609467271972</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9594796241527445</v>
+        <v>0.9584475592379965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2373</v>
@@ -5049,19 +5049,19 @@
         <v>2036805</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2017240</v>
+        <v>2018468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2051510</v>
+        <v>2050820</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9605798661245848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9513526525262732</v>
+        <v>0.9519319567665639</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.967514915627515</v>
+        <v>0.9671894281650122</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>27867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18679</v>
+        <v>18022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42077</v>
+        <v>41058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03469985389929573</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02325934290293143</v>
+        <v>0.02244071178814491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05239454113339279</v>
+        <v>0.05112624996029249</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5174,19 +5174,19 @@
         <v>42605</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32032</v>
+        <v>31956</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56002</v>
+        <v>55585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05245202723290685</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03943538527755777</v>
+        <v>0.03934238150270834</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06894653625682164</v>
+        <v>0.06843244092301069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -5195,19 +5195,19 @@
         <v>70471</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55563</v>
+        <v>55783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90619</v>
+        <v>88098</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04362641503043766</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03439755484846744</v>
+        <v>0.03453325180288212</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05609917398019717</v>
+        <v>0.05453869640365744</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>775206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>760996</v>
+        <v>762015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784394</v>
+        <v>785051</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9653001461007044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9476054588666072</v>
+        <v>0.9488737500397075</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9767406570970686</v>
+        <v>0.9775592882118552</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>991</v>
@@ -5245,19 +5245,19 @@
         <v>769654</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>756257</v>
+        <v>756674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>780227</v>
+        <v>780303</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9475479727670931</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9310534637431787</v>
+        <v>0.9315675590769892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9605646147224423</v>
+        <v>0.9606576184972916</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1642</v>
@@ -5266,19 +5266,19 @@
         <v>1544861</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1524713</v>
+        <v>1527234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1559769</v>
+        <v>1559549</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9563735849695623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9439008260198031</v>
+        <v>0.9454613035963427</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9656024451515327</v>
+        <v>0.9654667481971179</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>36210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26140</v>
+        <v>25311</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53442</v>
+        <v>51874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.036573407498781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02640220139935492</v>
+        <v>0.02556523410393002</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05397859437213086</v>
+        <v>0.05239506357464317</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -5391,19 +5391,19 @@
         <v>52962</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42887</v>
+        <v>41719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64279</v>
+        <v>64785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04732810519431354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03832478295801339</v>
+        <v>0.03728126402130675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05744077679589377</v>
+        <v>0.05789300421706163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -5412,19 +5412,19 @@
         <v>89172</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72704</v>
+        <v>73347</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107902</v>
+        <v>108136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04227960028239588</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03447132874204342</v>
+        <v>0.0347763836855651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0511599383573541</v>
+        <v>0.05127102099275166</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>953852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>936620</v>
+        <v>938188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>963922</v>
+        <v>964751</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9634265925012191</v>
+        <v>0.963426592501219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9460214056278691</v>
+        <v>0.947604936425357</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9735977986006451</v>
+        <v>0.9744347658960701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1478</v>
@@ -5462,19 +5462,19 @@
         <v>1066079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1054762</v>
+        <v>1054256</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1076154</v>
+        <v>1077322</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9526718948056867</v>
+        <v>0.9526718948056865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9425592232041062</v>
+        <v>0.9421069957829387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9616752170419866</v>
+        <v>0.9627187359786933</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2448</v>
@@ -5483,19 +5483,19 @@
         <v>2019932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2001202</v>
+        <v>2000968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2036400</v>
+        <v>2035757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9577203997176041</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9488400616426459</v>
+        <v>0.9487289790072483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9655286712579566</v>
+        <v>0.9652236163144351</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>122174</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100078</v>
+        <v>99050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145596</v>
+        <v>146347</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03458307426502808</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02832844147691267</v>
+        <v>0.02803759447404517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0412130449731771</v>
+        <v>0.04142558111685722</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -5608,19 +5608,19 @@
         <v>179728</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>158850</v>
+        <v>159963</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202201</v>
+        <v>203868</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04809481176350057</v>
+        <v>0.04809481176350056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04250782549045935</v>
+        <v>0.04280583955611527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05410845225639486</v>
+        <v>0.05455467979734376</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>386</v>
@@ -5629,19 +5629,19 @@
         <v>301902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>269082</v>
+        <v>271286</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>335313</v>
+        <v>334753</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04152870229499092</v>
+        <v>0.04152870229499091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03701404221082222</v>
+        <v>0.03731728425569844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04612465339566971</v>
+        <v>0.04604764883757766</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3410588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3387166</v>
+        <v>3386415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3432684</v>
+        <v>3433712</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.965416925734972</v>
+        <v>0.9654169257349721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.958786955026823</v>
+        <v>0.9585744188831422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9716715585230867</v>
+        <v>0.9719624055259545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5101</v>
@@ -5679,19 +5679,19 @@
         <v>3557226</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3534753</v>
+        <v>3533086</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3578104</v>
+        <v>3576991</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9519051882364995</v>
+        <v>0.9519051882364994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.945891547743605</v>
+        <v>0.9454453202026558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9574921745095405</v>
+        <v>0.9571941604438844</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8357</v>
@@ -5700,19 +5700,19 @@
         <v>6967814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6934403</v>
+        <v>6934963</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7000634</v>
+        <v>6998430</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9584712977050091</v>
+        <v>0.9584712977050089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9538753466043304</v>
+        <v>0.9539523511624225</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9629859577891779</v>
+        <v>0.9626827157443019</v>
       </c>
     </row>
     <row r="18">
